--- a/Scheduler/investment_company_announcement/2023Q2_investment_company_announcement.xlsx
+++ b/Scheduler/investment_company_announcement/2023Q2_investment_company_announcement.xlsx
@@ -31,7 +31,7 @@
     <t>20230630</t>
   </si>
   <si>
-    <t>790.1</t>
+    <t>754.2</t>
   </si>
   <si>
     <t>N</t>
@@ -40,7 +40,7 @@
     <t>DS투자증권</t>
   </si>
   <si>
-    <t>529.5</t>
+    <t>473.4</t>
   </si>
   <si>
     <t>Y</t>
@@ -49,355 +49,349 @@
     <t>IBK투자증권</t>
   </si>
   <si>
-    <t>637.6</t>
+    <t>599.1</t>
   </si>
   <si>
     <t>KB증권</t>
   </si>
   <si>
-    <t>703.4</t>
+    <t>699.8</t>
   </si>
   <si>
     <t>KR투자증권</t>
   </si>
   <si>
-    <t>594.7</t>
+    <t>511.7</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>589.6</t>
+    <t>566.7</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
-    <t>722.7</t>
+    <t>735.6</t>
   </si>
   <si>
     <t>UBS증권</t>
   </si>
   <si>
-    <t>107.1</t>
+    <t>114.3</t>
   </si>
   <si>
     <t>골드만삭스증권</t>
   </si>
   <si>
-    <t>122.5</t>
+    <t>121.6</t>
   </si>
   <si>
     <t>교보증권</t>
   </si>
   <si>
-    <t>731.2</t>
+    <t>732.1</t>
   </si>
   <si>
     <t>나틱시스증권 서울지점</t>
   </si>
   <si>
-    <t>111.1</t>
+    <t>111.4</t>
   </si>
   <si>
     <t>넥스트증권</t>
   </si>
   <si>
-    <t>137.5</t>
+    <t>138.8</t>
   </si>
   <si>
     <t>노무라금융투자</t>
   </si>
   <si>
-    <t>559.3</t>
+    <t>772.1</t>
   </si>
   <si>
     <t>다올투자증권</t>
   </si>
   <si>
-    <t>511.1</t>
+    <t>515.8</t>
   </si>
   <si>
     <t>다이와증권캐피탈마켓코리아</t>
   </si>
   <si>
-    <t>180.3</t>
+    <t>304.4</t>
   </si>
   <si>
     <t>대신증권</t>
   </si>
   <si>
-    <t>550.5</t>
+    <t>564.7</t>
   </si>
   <si>
     <t>도이치증권</t>
   </si>
   <si>
-    <t>133.2</t>
+    <t>127.6</t>
   </si>
   <si>
     <t>리딩투자증권</t>
   </si>
   <si>
-    <t>138.2</t>
+    <t>273.9</t>
   </si>
   <si>
     <t>맥쿼리증권</t>
   </si>
   <si>
-    <t>164.8</t>
+    <t>158.4</t>
   </si>
   <si>
     <t>메리츠증권</t>
   </si>
   <si>
-    <t>756.7</t>
+    <t>766.1</t>
   </si>
   <si>
     <t>메릴린치증권</t>
   </si>
   <si>
-    <t>111.2</t>
+    <t>108.3</t>
   </si>
   <si>
     <t>모건스탠리증권</t>
   </si>
   <si>
-    <t>112.7</t>
+    <t>115.6</t>
   </si>
   <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>662.1</t>
+    <t>687</t>
   </si>
   <si>
     <t>미즈호증권</t>
   </si>
   <si>
-    <t>113.1</t>
+    <t>110.2</t>
   </si>
   <si>
     <t>부국증권</t>
   </si>
   <si>
-    <t>659</t>
+    <t>566.1</t>
   </si>
   <si>
     <t>비엔케이투자증권</t>
   </si>
   <si>
-    <t>339.1</t>
+    <t>370.4</t>
   </si>
   <si>
     <t>비엔피파리바증권</t>
   </si>
   <si>
-    <t>102.7</t>
+    <t>104.5</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
-    <t>678</t>
+    <t>672.3</t>
   </si>
   <si>
     <t>상상인증권</t>
   </si>
   <si>
-    <t>488.3</t>
+    <t>429.3</t>
   </si>
   <si>
     <t>신영증권</t>
   </si>
   <si>
-    <t>722.6</t>
+    <t>779.6</t>
   </si>
   <si>
     <t>신한투자증권</t>
   </si>
   <si>
-    <t>750.5</t>
+    <t>755.1</t>
   </si>
   <si>
     <t>씨엘에스에이코리아증권</t>
   </si>
   <si>
-    <t>109.1</t>
+    <t>107.9</t>
   </si>
   <si>
     <t>씨엠에스증권 한국</t>
   </si>
   <si>
-    <t>112.2</t>
+    <t>122.4</t>
   </si>
   <si>
     <t>씨지에스 인터내셔널증권 홍콩 한국지점</t>
   </si>
   <si>
-    <t>110.1</t>
+    <t>109.8</t>
   </si>
   <si>
     <t>씨티그룹글로벌마켓증권</t>
   </si>
   <si>
-    <t>124</t>
+    <t>113.9</t>
   </si>
   <si>
     <t>아이엔지증권 서울지점</t>
   </si>
   <si>
-    <t>101</t>
+    <t>100.8</t>
   </si>
   <si>
     <t>아이엠증권</t>
   </si>
   <si>
-    <t>806.1</t>
+    <t>751.6</t>
   </si>
   <si>
     <t>엘에스증권</t>
   </si>
   <si>
-    <t>548.1</t>
+    <t>589.7</t>
   </si>
   <si>
     <t>우리투자증권(구.포스증권)</t>
   </si>
   <si>
-    <t>104.6</t>
+    <t>98</t>
   </si>
   <si>
     <t>유안타증권</t>
   </si>
   <si>
-    <t>676.4</t>
+    <t>756.6</t>
   </si>
   <si>
     <t>유진투자증권</t>
   </si>
   <si>
-    <t>757.6</t>
+    <t>763.2</t>
   </si>
   <si>
     <t>유화증권</t>
   </si>
   <si>
-    <t>129.7</t>
+    <t>130</t>
   </si>
   <si>
     <t>제이피모간증권</t>
   </si>
   <si>
-    <t>114.5</t>
-  </si>
-  <si>
     <t>카카오페이증권</t>
   </si>
   <si>
-    <t>102.1</t>
+    <t>116.2</t>
   </si>
   <si>
     <t>케이아이디비채권중개</t>
   </si>
   <si>
-    <t>113.7</t>
+    <t>111.6</t>
   </si>
   <si>
     <t>케이프투자증권</t>
   </si>
   <si>
-    <t>834.1</t>
+    <t>785.7</t>
   </si>
   <si>
     <t>코리아에셋투자증권</t>
   </si>
   <si>
-    <t>258.3</t>
+    <t>528.6</t>
   </si>
   <si>
     <t>크레디 아그리콜 아시아 증권 서울지점</t>
   </si>
   <si>
-    <t>110.5</t>
+    <t>104.8</t>
   </si>
   <si>
     <t>크레디트스위스증권</t>
   </si>
   <si>
-    <t>105.4</t>
+    <t>104</t>
   </si>
   <si>
     <t>키움증권</t>
   </si>
   <si>
-    <t>761</t>
+    <t>733.7</t>
   </si>
   <si>
     <t>토스증권</t>
   </si>
   <si>
-    <t>382.1</t>
+    <t>423.7</t>
   </si>
   <si>
     <t>하나증권</t>
   </si>
   <si>
-    <t>662.2</t>
+    <t>717.2</t>
   </si>
   <si>
     <t>한국스탠다드차타드증권</t>
   </si>
   <si>
-    <t>105.7</t>
+    <t>114.7</t>
   </si>
   <si>
     <t>한국아이엠씨증권</t>
   </si>
   <si>
-    <t>124.7</t>
+    <t>129.9</t>
   </si>
   <si>
     <t>한국에스지증권</t>
   </si>
   <si>
-    <t>293.7</t>
+    <t>294.2</t>
   </si>
   <si>
     <t>한국투자증권</t>
   </si>
   <si>
-    <t>677.1</t>
+    <t>625.6</t>
   </si>
   <si>
     <t>한양증권</t>
   </si>
   <si>
-    <t>709</t>
+    <t>559.6</t>
   </si>
   <si>
     <t>한화투자증권</t>
   </si>
   <si>
-    <t>723.8</t>
+    <t>681</t>
   </si>
   <si>
     <t>현대차증권</t>
   </si>
   <si>
-    <t>828</t>
+    <t>876</t>
   </si>
   <si>
     <t>홍콩상하이증권</t>
   </si>
   <si>
-    <t>124.6</t>
-  </si>
-  <si>
     <t>흥국증권</t>
   </si>
   <si>
-    <t>253.2</t>
+    <t>215</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1065,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1079,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1093,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1107,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1121,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1135,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>104</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1149,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1163,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1177,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1191,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
         <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1205,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>114</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1219,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1233,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>118</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1247,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
         <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1261,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1275,13 +1269,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>124</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1289,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1303,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
